--- a/resource/data0.xlsx
+++ b/resource/data0.xlsx
@@ -21,19 +21,19 @@
     <t>Story</t>
   </si>
   <si>
-    <t>项目组</t>
-  </si>
-  <si>
-    <t>交付周期</t>
-  </si>
-  <si>
-    <t>Story完成时间</t>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
+    <t>Story Finsh Date</t>
   </si>
   <si>
     <t>Story1</t>
   </si>
   <si>
-    <t>项目组A</t>
+    <t>Project A</t>
   </si>
   <si>
     <t>Story2</t>
@@ -135,7 +135,7 @@
     <t>Story34</t>
   </si>
   <si>
-    <t>项目组B</t>
+    <t>Project B</t>
   </si>
   <si>
     <t>Story35</t>
@@ -237,7 +237,7 @@
     <t>Story67</t>
   </si>
   <si>
-    <t>项目组C</t>
+    <t>Project C</t>
   </si>
   <si>
     <t>Story68</t>
@@ -345,9 +345,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -358,24 +358,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,18 +412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,6 +434,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -442,9 +450,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,32 +474,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -496,7 +489,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,192 +511,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -705,11 +705,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,17 +750,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,16 +774,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -784,24 +817,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -810,153 +825,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,1427 +1330,1428 @@
   <sheetPr/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
+    <col min="2" max="2" width="15.8888888888889" customWidth="1"/>
     <col min="3" max="3" width="15.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="19.0555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
         <v>8.936</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>43160</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
         <v>7.4356</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>43161</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
         <v>8.4686</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>43162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
         <v>9.2998</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>43163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
         <v>10.8827</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>43164</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>8.283</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>43165</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
         <v>5.7434</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>43166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
         <v>11.3749</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>43167</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
         <v>9.028</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>43168</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2">
         <v>11.2548</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>43169</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
         <v>7.5904</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>43170</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2">
         <v>7.8827</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>43171</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
         <v>13.4113</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>43172</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2">
         <v>8.9371</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="3">
         <v>43173</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2">
         <v>12.7539</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="3">
         <v>43174</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
         <v>9.6959</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="3">
         <v>43175</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
         <v>9.6997</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="3">
         <v>43176</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2">
         <v>6.4747</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="3">
         <v>43177</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
         <v>7.1933</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="3">
         <v>43178</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2">
         <v>8.4678</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>43179</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
         <v>12.1985</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="3">
         <v>43180</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2">
         <v>10.6968</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="3">
         <v>43181</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
         <v>10.4288</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="3">
         <v>43182</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2">
         <v>12.269</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="3">
         <v>43183</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
         <v>8.8465</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="3">
         <v>43184</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
         <v>9.4535</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="3">
         <v>43185</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="2">
         <v>9.2878</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="3">
         <v>43186</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2">
         <v>13.1013</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="3">
         <v>43187</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
         <v>7.9655</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="3">
         <v>43188</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2">
         <v>8.2682</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="3">
         <v>43189</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="2">
         <v>12.3256</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="3">
         <v>43190</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2">
         <v>15.7839</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="3">
         <v>43191</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
         <v>11.0685</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="3">
         <v>43192</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="2">
         <v>10.8734</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="3">
         <v>43193</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="2">
         <v>6.1409</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="3">
         <v>43194</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="2">
         <v>8.8409</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="3">
         <v>43195</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2">
         <v>9.9504</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="3">
         <v>43196</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2">
         <v>11.6018</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="3">
         <v>43197</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="2">
         <v>9.9995</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="3">
         <v>43198</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2">
         <v>10.6775</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="3">
         <v>43199</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="2">
         <v>11.993</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="3">
         <v>43200</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2">
         <v>9.3723</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="3">
         <v>43201</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="2">
         <v>11.7603</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="3">
         <v>43202</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="2">
         <v>8.9997</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="3">
         <v>43203</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2">
         <v>11.3035</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="3">
         <v>43204</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="2">
         <v>11.1942</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="3">
         <v>43205</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="2">
         <v>10.9042</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="3">
         <v>43206</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="2">
         <v>12.137</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="3">
         <v>43207</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="2">
         <v>8.4082</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="3">
         <v>43208</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="2">
         <v>9.038</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="3">
         <v>43209</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52">
+      <c r="B52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="2">
         <v>10.5492</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="3">
         <v>43210</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53">
+      <c r="B53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="2">
         <v>13.8506</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="3">
         <v>43211</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="2">
         <v>11.4913</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="3">
         <v>43212</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="2">
         <v>10.5381</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="3">
         <v>43213</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56">
+      <c r="B56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="2">
         <v>11.1303</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="3">
         <v>43214</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57">
+      <c r="B57" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="2">
         <v>10.1567</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="3">
         <v>43215</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="2">
         <v>10.8089</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="3">
         <v>43216</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59">
+      <c r="B59" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="2">
         <v>11.7299</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="3">
         <v>43217</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60">
+      <c r="B60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="2">
         <v>10.4543</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="3">
         <v>43218</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C61">
+      <c r="B61" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C61" s="2">
         <v>10.4851</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="3">
         <v>43219</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62">
+      <c r="B62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="2">
         <v>12.1397</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="3">
         <v>43220</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C63">
+      <c r="B63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="2">
         <v>13.5504</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="3">
         <v>43221</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="A64" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64">
+      <c r="B64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="2">
         <v>11.9596</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="3">
         <v>43222</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="A65" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65">
+      <c r="B65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="2">
         <v>10.1595</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="3">
         <v>43223</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="A66" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="s">
-        <v>39</v>
-      </c>
-      <c r="C66">
+      <c r="B66" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="2">
         <v>10.3017</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="3">
         <v>43224</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="A67" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B67" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67">
+      <c r="B67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" s="2">
         <v>8.0672</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="3">
         <v>43225</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68">
+      <c r="B68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="2">
         <v>11.6312</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="3">
         <v>43226</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="A69" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69">
+      <c r="B69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69" s="2">
         <v>6.3463</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="3">
         <v>43227</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="A70" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70">
+      <c r="B70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="2">
         <v>10.7237</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="3">
         <v>43228</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="A71" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71">
+      <c r="B71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="2">
         <v>8.5281</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="3">
         <v>43229</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="A72" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72">
+      <c r="B72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="2">
         <v>10.8718</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="3">
         <v>43230</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="A73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73">
+      <c r="B73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="2">
         <v>13.3763</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="3">
         <v>43231</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="A74" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74">
+      <c r="B74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C74" s="2">
         <v>13.7154</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="3">
         <v>43232</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75">
+      <c r="B75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="2">
         <v>11.3929</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="3">
         <v>43233</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B76" t="s">
-        <v>73</v>
-      </c>
-      <c r="C76">
+      <c r="B76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C76" s="2">
         <v>9.7347</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="3">
         <v>43234</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77">
+      <c r="B77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="2">
         <v>10.5163</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="3">
         <v>43235</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78">
+      <c r="B78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="2">
         <v>9.2116</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="3">
         <v>43236</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B79" t="s">
-        <v>73</v>
-      </c>
-      <c r="C79">
+      <c r="B79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="2">
         <v>10.1048</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="3">
         <v>43237</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B80" t="s">
-        <v>73</v>
-      </c>
-      <c r="C80">
+      <c r="B80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="2">
         <v>12.9512</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="3">
         <v>43238</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B81" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81">
+      <c r="B81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="2">
         <v>14.304</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="3">
         <v>43239</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B82" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82">
+      <c r="B82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="2">
         <v>9.5739</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="3">
         <v>43240</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83">
+      <c r="B83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C83" s="2">
         <v>9.4676</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="3">
         <v>43241</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B84" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84">
+      <c r="B84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="2">
         <v>10.5661</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="3">
         <v>43242</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B85" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85">
+      <c r="B85" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="2">
         <v>9.6978</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="3">
         <v>43243</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B86" t="s">
-        <v>73</v>
-      </c>
-      <c r="C86">
+      <c r="B86" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="2">
         <v>11.8673</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="3">
         <v>43244</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C87">
+      <c r="B87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="2">
         <v>9.8443</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="3">
         <v>43245</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C88">
+      <c r="B88" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="2">
         <v>9.0493</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="3">
         <v>43246</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89">
+      <c r="B89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="2">
         <v>9.3511</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="3">
         <v>43247</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B90" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90">
+      <c r="B90" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C90" s="2">
         <v>10.9667</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="3">
         <v>43248</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B91" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91">
+      <c r="B91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" s="2">
         <v>11.584</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="3">
         <v>43249</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B92" t="s">
-        <v>73</v>
-      </c>
-      <c r="C92">
+      <c r="B92" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="2">
         <v>12.3102</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="3">
         <v>43250</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B93" t="s">
-        <v>73</v>
-      </c>
-      <c r="C93">
+      <c r="B93" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C93" s="2">
         <v>9.8954</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="3">
         <v>43251</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C94">
+      <c r="B94" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C94" s="2">
         <v>7.085</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="3">
         <v>43252</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B95" t="s">
-        <v>73</v>
-      </c>
-      <c r="C95">
+      <c r="B95" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C95" s="2">
         <v>8.751</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="3">
         <v>43253</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B96" t="s">
-        <v>73</v>
-      </c>
-      <c r="C96">
+      <c r="B96" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="2">
         <v>8.8576</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="3">
         <v>43254</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B97" t="s">
-        <v>73</v>
-      </c>
-      <c r="C97">
+      <c r="B97" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="2">
         <v>11.7189</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="3">
         <v>43255</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C98">
+      <c r="B98" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" s="2">
         <v>10.8784</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="3">
         <v>43256</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B99" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99">
+      <c r="B99" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" s="2">
         <v>8.2847</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="3">
         <v>43257</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100">
+      <c r="B100" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="2">
         <v>13.9651</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="3">
         <v>43258</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B101" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101">
+      <c r="B101" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C101" s="2">
         <v>9.7359</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="3">
         <v>43259</v>
       </c>
     </row>

--- a/resource/data0.xlsx
+++ b/resource/data0.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView windowWidth="22943" windowHeight="10464"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$101</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -27,316 +29,316 @@
     <t>Lead Time</t>
   </si>
   <si>
-    <t>Story Finsh Date</t>
+    <t>Story Finish Date</t>
+  </si>
+  <si>
+    <t>Story7</t>
+  </si>
+  <si>
+    <t>Project A</t>
+  </si>
+  <si>
+    <t>Story35</t>
+  </si>
+  <si>
+    <t>Project B</t>
+  </si>
+  <si>
+    <t>Story68</t>
+  </si>
+  <si>
+    <t>Project C</t>
+  </si>
+  <si>
+    <t>Story18</t>
+  </si>
+  <si>
+    <t>Story93</t>
+  </si>
+  <si>
+    <t>Story19</t>
+  </si>
+  <si>
+    <t>Story2</t>
+  </si>
+  <si>
+    <t>Story11</t>
+  </si>
+  <si>
+    <t>Story12</t>
+  </si>
+  <si>
+    <t>Story29</t>
+  </si>
+  <si>
+    <t>Story66</t>
+  </si>
+  <si>
+    <t>Story30</t>
+  </si>
+  <si>
+    <t>Story6</t>
+  </si>
+  <si>
+    <t>Story98</t>
+  </si>
+  <si>
+    <t>Story49</t>
+  </si>
+  <si>
+    <t>Story20</t>
+  </si>
+  <si>
+    <t>Story3</t>
+  </si>
+  <si>
+    <t>Story70</t>
+  </si>
+  <si>
+    <t>Story94</t>
+  </si>
+  <si>
+    <t>Story36</t>
+  </si>
+  <si>
+    <t>Story25</t>
+  </si>
+  <si>
+    <t>Story95</t>
   </si>
   <si>
     <t>Story1</t>
   </si>
   <si>
-    <t>Project A</t>
-  </si>
-  <si>
-    <t>Story2</t>
-  </si>
-  <si>
-    <t>Story3</t>
+    <t>Story14</t>
+  </si>
+  <si>
+    <t>Story44</t>
+  </si>
+  <si>
+    <t>Story9</t>
+  </si>
+  <si>
+    <t>Story50</t>
+  </si>
+  <si>
+    <t>Story87</t>
+  </si>
+  <si>
+    <t>Story77</t>
+  </si>
+  <si>
+    <t>Story27</t>
   </si>
   <si>
     <t>Story4</t>
   </si>
   <si>
+    <t>Story88</t>
+  </si>
+  <si>
+    <t>Story42</t>
+  </si>
+  <si>
+    <t>Story26</t>
+  </si>
+  <si>
+    <t>Story82</t>
+  </si>
+  <si>
+    <t>Story81</t>
+  </si>
+  <si>
+    <t>Story16</t>
+  </si>
+  <si>
+    <t>Story84</t>
+  </si>
+  <si>
+    <t>Story17</t>
+  </si>
+  <si>
+    <t>Story75</t>
+  </si>
+  <si>
+    <t>Story100</t>
+  </si>
+  <si>
+    <t>Story86</t>
+  </si>
+  <si>
+    <t>Story92</t>
+  </si>
+  <si>
+    <t>Story37</t>
+  </si>
+  <si>
+    <t>Story39</t>
+  </si>
+  <si>
+    <t>Story78</t>
+  </si>
+  <si>
+    <t>Story56</t>
+  </si>
+  <si>
+    <t>Story64</t>
+  </si>
+  <si>
+    <t>Story65</t>
+  </si>
+  <si>
+    <t>Story23</t>
+  </si>
+  <si>
+    <t>Story59</t>
+  </si>
+  <si>
+    <t>Story60</t>
+  </si>
+  <si>
+    <t>Story76</t>
+  </si>
+  <si>
+    <t>Story54</t>
+  </si>
+  <si>
+    <t>Story51</t>
+  </si>
+  <si>
+    <t>Story83</t>
+  </si>
+  <si>
+    <t>Story40</t>
+  </si>
+  <si>
+    <t>Story22</t>
+  </si>
+  <si>
+    <t>Story69</t>
+  </si>
+  <si>
+    <t>Story57</t>
+  </si>
+  <si>
+    <t>Story71</t>
+  </si>
+  <si>
+    <t>Story34</t>
+  </si>
+  <si>
+    <t>Story97</t>
+  </si>
+  <si>
     <t>Story5</t>
   </si>
   <si>
-    <t>Story6</t>
-  </si>
-  <si>
-    <t>Story7</t>
+    <t>Story47</t>
+  </si>
+  <si>
+    <t>Story89</t>
+  </si>
+  <si>
+    <t>Story33</t>
+  </si>
+  <si>
+    <t>Story55</t>
+  </si>
+  <si>
+    <t>Story46</t>
+  </si>
+  <si>
+    <t>Story10</t>
+  </si>
+  <si>
+    <t>Story45</t>
   </si>
   <si>
     <t>Story8</t>
   </si>
   <si>
-    <t>Story9</t>
-  </si>
-  <si>
-    <t>Story10</t>
-  </si>
-  <si>
-    <t>Story11</t>
-  </si>
-  <si>
-    <t>Story12</t>
+    <t>Story74</t>
+  </si>
+  <si>
+    <t>Story53</t>
+  </si>
+  <si>
+    <t>Story90</t>
+  </si>
+  <si>
+    <t>Story38</t>
+  </si>
+  <si>
+    <t>Story67</t>
+  </si>
+  <si>
+    <t>Story96</t>
+  </si>
+  <si>
+    <t>Story58</t>
+  </si>
+  <si>
+    <t>Story43</t>
+  </si>
+  <si>
+    <t>Story85</t>
+  </si>
+  <si>
+    <t>Story63</t>
+  </si>
+  <si>
+    <t>Story41</t>
+  </si>
+  <si>
+    <t>Story48</t>
+  </si>
+  <si>
+    <t>Story61</t>
+  </si>
+  <si>
+    <t>Story21</t>
+  </si>
+  <si>
+    <t>Story24</t>
+  </si>
+  <si>
+    <t>Story91</t>
+  </si>
+  <si>
+    <t>Story31</t>
+  </si>
+  <si>
+    <t>Story15</t>
+  </si>
+  <si>
+    <t>Story79</t>
+  </si>
+  <si>
+    <t>Story28</t>
+  </si>
+  <si>
+    <t>Story72</t>
   </si>
   <si>
     <t>Story13</t>
   </si>
   <si>
-    <t>Story14</t>
-  </si>
-  <si>
-    <t>Story15</t>
-  </si>
-  <si>
-    <t>Story16</t>
-  </si>
-  <si>
-    <t>Story17</t>
-  </si>
-  <si>
-    <t>Story18</t>
-  </si>
-  <si>
-    <t>Story19</t>
-  </si>
-  <si>
-    <t>Story20</t>
-  </si>
-  <si>
-    <t>Story21</t>
-  </si>
-  <si>
-    <t>Story22</t>
-  </si>
-  <si>
-    <t>Story23</t>
-  </si>
-  <si>
-    <t>Story24</t>
-  </si>
-  <si>
-    <t>Story25</t>
-  </si>
-  <si>
-    <t>Story26</t>
-  </si>
-  <si>
-    <t>Story27</t>
-  </si>
-  <si>
-    <t>Story28</t>
-  </si>
-  <si>
-    <t>Story29</t>
-  </si>
-  <si>
-    <t>Story30</t>
-  </si>
-  <si>
-    <t>Story31</t>
+    <t>Story62</t>
+  </si>
+  <si>
+    <t>Story73</t>
+  </si>
+  <si>
+    <t>Story52</t>
+  </si>
+  <si>
+    <t>Story99</t>
+  </si>
+  <si>
+    <t>Story80</t>
   </si>
   <si>
     <t>Story32</t>
-  </si>
-  <si>
-    <t>Story33</t>
-  </si>
-  <si>
-    <t>Story34</t>
-  </si>
-  <si>
-    <t>Project B</t>
-  </si>
-  <si>
-    <t>Story35</t>
-  </si>
-  <si>
-    <t>Story36</t>
-  </si>
-  <si>
-    <t>Story37</t>
-  </si>
-  <si>
-    <t>Story38</t>
-  </si>
-  <si>
-    <t>Story39</t>
-  </si>
-  <si>
-    <t>Story40</t>
-  </si>
-  <si>
-    <t>Story41</t>
-  </si>
-  <si>
-    <t>Story42</t>
-  </si>
-  <si>
-    <t>Story43</t>
-  </si>
-  <si>
-    <t>Story44</t>
-  </si>
-  <si>
-    <t>Story45</t>
-  </si>
-  <si>
-    <t>Story46</t>
-  </si>
-  <si>
-    <t>Story47</t>
-  </si>
-  <si>
-    <t>Story48</t>
-  </si>
-  <si>
-    <t>Story49</t>
-  </si>
-  <si>
-    <t>Story50</t>
-  </si>
-  <si>
-    <t>Story51</t>
-  </si>
-  <si>
-    <t>Story52</t>
-  </si>
-  <si>
-    <t>Story53</t>
-  </si>
-  <si>
-    <t>Story54</t>
-  </si>
-  <si>
-    <t>Story55</t>
-  </si>
-  <si>
-    <t>Story56</t>
-  </si>
-  <si>
-    <t>Story57</t>
-  </si>
-  <si>
-    <t>Story58</t>
-  </si>
-  <si>
-    <t>Story59</t>
-  </si>
-  <si>
-    <t>Story60</t>
-  </si>
-  <si>
-    <t>Story61</t>
-  </si>
-  <si>
-    <t>Story62</t>
-  </si>
-  <si>
-    <t>Story63</t>
-  </si>
-  <si>
-    <t>Story64</t>
-  </si>
-  <si>
-    <t>Story65</t>
-  </si>
-  <si>
-    <t>Story66</t>
-  </si>
-  <si>
-    <t>Story67</t>
-  </si>
-  <si>
-    <t>Project C</t>
-  </si>
-  <si>
-    <t>Story68</t>
-  </si>
-  <si>
-    <t>Story69</t>
-  </si>
-  <si>
-    <t>Story70</t>
-  </si>
-  <si>
-    <t>Story71</t>
-  </si>
-  <si>
-    <t>Story72</t>
-  </si>
-  <si>
-    <t>Story73</t>
-  </si>
-  <si>
-    <t>Story74</t>
-  </si>
-  <si>
-    <t>Story75</t>
-  </si>
-  <si>
-    <t>Story76</t>
-  </si>
-  <si>
-    <t>Story77</t>
-  </si>
-  <si>
-    <t>Story78</t>
-  </si>
-  <si>
-    <t>Story79</t>
-  </si>
-  <si>
-    <t>Story80</t>
-  </si>
-  <si>
-    <t>Story81</t>
-  </si>
-  <si>
-    <t>Story82</t>
-  </si>
-  <si>
-    <t>Story83</t>
-  </si>
-  <si>
-    <t>Story84</t>
-  </si>
-  <si>
-    <t>Story85</t>
-  </si>
-  <si>
-    <t>Story86</t>
-  </si>
-  <si>
-    <t>Story87</t>
-  </si>
-  <si>
-    <t>Story88</t>
-  </si>
-  <si>
-    <t>Story89</t>
-  </si>
-  <si>
-    <t>Story90</t>
-  </si>
-  <si>
-    <t>Story91</t>
-  </si>
-  <si>
-    <t>Story92</t>
-  </si>
-  <si>
-    <t>Story93</t>
-  </si>
-  <si>
-    <t>Story94</t>
-  </si>
-  <si>
-    <t>Story95</t>
-  </si>
-  <si>
-    <t>Story96</t>
-  </si>
-  <si>
-    <t>Story97</t>
-  </si>
-  <si>
-    <t>Story98</t>
-  </si>
-  <si>
-    <t>Story99</t>
-  </si>
-  <si>
-    <t>Story100</t>
   </si>
 </sst>
 </file>
@@ -344,8 +346,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -358,55 +360,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,10 +382,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -435,7 +398,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,14 +406,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,9 +436,48 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,14 +491,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,181 +519,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,32 +722,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,7 +734,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -777,17 +769,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,13 +805,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,10 +827,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,133 +839,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,7 +1333,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1363,7 +1365,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>8.936</v>
+        <v>5.7434</v>
       </c>
       <c r="D2" s="3">
         <v>43160</v>
@@ -1374,923 +1376,923 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>7.4356</v>
+        <v>6.1409</v>
       </c>
       <c r="D3" s="3">
-        <v>43161</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>8.4686</v>
+        <v>6.3463</v>
       </c>
       <c r="D4" s="3">
-        <v>43162</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>9.2998</v>
+        <v>6.4747</v>
       </c>
       <c r="D5" s="3">
-        <v>43163</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>10.8827</v>
+        <v>7.085</v>
       </c>
       <c r="D6" s="3">
-        <v>43164</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>8.283</v>
+        <v>7.1933</v>
       </c>
       <c r="D7" s="3">
-        <v>43165</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="2">
-        <v>5.7434</v>
+        <v>7.4356</v>
       </c>
       <c r="D8" s="3">
-        <v>43166</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>11.3749</v>
+        <v>7.5904</v>
       </c>
       <c r="D9" s="3">
-        <v>43167</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>9.028</v>
+        <v>7.8827</v>
       </c>
       <c r="D10" s="3">
-        <v>43168</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>11.2548</v>
+        <v>7.9655</v>
       </c>
       <c r="D11" s="3">
-        <v>43169</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2">
-        <v>7.5904</v>
+        <v>8.0672</v>
       </c>
       <c r="D12" s="3">
-        <v>43170</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>7.8827</v>
+        <v>8.2682</v>
       </c>
       <c r="D13" s="3">
-        <v>43171</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="2">
-        <v>13.4113</v>
+        <v>8.283</v>
       </c>
       <c r="D14" s="3">
-        <v>43172</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2">
-        <v>8.9371</v>
+        <v>8.2847</v>
       </c>
       <c r="D15" s="3">
-        <v>43173</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2">
-        <v>12.7539</v>
+        <v>8.4082</v>
       </c>
       <c r="D16" s="3">
-        <v>43174</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>9.6959</v>
+        <v>8.4678</v>
       </c>
       <c r="D17" s="3">
-        <v>43175</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <v>9.6997</v>
+        <v>8.4686</v>
       </c>
       <c r="D18" s="3">
-        <v>43176</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2">
-        <v>6.4747</v>
+        <v>8.5281</v>
       </c>
       <c r="D19" s="3">
-        <v>43177</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2">
-        <v>7.1933</v>
+        <v>8.751</v>
       </c>
       <c r="D20" s="3">
-        <v>43178</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2">
-        <v>8.4678</v>
+        <v>8.8409</v>
       </c>
       <c r="D21" s="3">
-        <v>43179</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>12.1985</v>
+        <v>8.8465</v>
       </c>
       <c r="D22" s="3">
-        <v>43180</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2">
-        <v>10.6968</v>
+        <v>8.8576</v>
       </c>
       <c r="D23" s="3">
-        <v>43181</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="2">
-        <v>10.4288</v>
+        <v>8.936</v>
       </c>
       <c r="D24" s="3">
-        <v>43182</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <v>12.269</v>
+        <v>8.9371</v>
       </c>
       <c r="D25" s="3">
-        <v>43183</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2">
-        <v>8.8465</v>
+        <v>8.9997</v>
       </c>
       <c r="D26" s="3">
-        <v>43184</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C27" s="2">
-        <v>9.4535</v>
+        <v>9.028</v>
       </c>
       <c r="D27" s="3">
-        <v>43185</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2">
-        <v>9.2878</v>
+        <v>9.038</v>
       </c>
       <c r="D28" s="3">
-        <v>43186</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
-        <v>13.1013</v>
+        <v>9.0493</v>
       </c>
       <c r="D29" s="3">
-        <v>43187</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2">
-        <v>7.9655</v>
+        <v>9.2116</v>
       </c>
       <c r="D30" s="3">
-        <v>43188</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="2">
-        <v>8.2682</v>
+        <v>9.2878</v>
       </c>
       <c r="D31" s="3">
-        <v>43189</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="2">
-        <v>12.3256</v>
+        <v>9.2998</v>
       </c>
       <c r="D32" s="3">
-        <v>43190</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C33" s="2">
-        <v>15.7839</v>
+        <v>9.3511</v>
       </c>
       <c r="D33" s="3">
-        <v>43191</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2">
-        <v>11.0685</v>
+        <v>9.3723</v>
       </c>
       <c r="D34" s="3">
-        <v>43192</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2">
-        <v>10.8734</v>
+        <v>9.4535</v>
       </c>
       <c r="D35" s="3">
-        <v>43193</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C36" s="2">
-        <v>6.1409</v>
+        <v>9.4676</v>
       </c>
       <c r="D36" s="3">
-        <v>43194</v>
+        <v>43161</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C37" s="2">
-        <v>8.8409</v>
+        <v>9.5739</v>
       </c>
       <c r="D37" s="3">
-        <v>43195</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2">
-        <v>9.9504</v>
+        <v>9.6959</v>
       </c>
       <c r="D38" s="3">
-        <v>43196</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C39" s="2">
-        <v>11.6018</v>
+        <v>9.6978</v>
       </c>
       <c r="D39" s="3">
-        <v>43197</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C40" s="2">
-        <v>9.9995</v>
+        <v>9.6997</v>
       </c>
       <c r="D40" s="3">
-        <v>43198</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C41" s="2">
-        <v>10.6775</v>
+        <v>9.7347</v>
       </c>
       <c r="D41" s="3">
-        <v>43199</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C42" s="2">
-        <v>11.993</v>
+        <v>9.7359</v>
       </c>
       <c r="D42" s="3">
-        <v>43200</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C43" s="2">
-        <v>9.3723</v>
+        <v>9.8443</v>
       </c>
       <c r="D43" s="3">
-        <v>43201</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C44" s="2">
-        <v>11.7603</v>
+        <v>9.8954</v>
       </c>
       <c r="D44" s="3">
-        <v>43202</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C45" s="2">
-        <v>8.9997</v>
+        <v>9.9504</v>
       </c>
       <c r="D45" s="3">
-        <v>43203</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C46" s="2">
-        <v>11.3035</v>
+        <v>9.9995</v>
       </c>
       <c r="D46" s="3">
-        <v>43204</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C47" s="2">
-        <v>11.1942</v>
+        <v>10.1048</v>
       </c>
       <c r="D47" s="3">
-        <v>43205</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2">
-        <v>10.9042</v>
+        <v>10.1567</v>
       </c>
       <c r="D48" s="3">
-        <v>43206</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C49" s="2">
-        <v>12.137</v>
+        <v>10.1595</v>
       </c>
       <c r="D49" s="3">
-        <v>43207</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2">
-        <v>8.4082</v>
+        <v>10.3017</v>
       </c>
       <c r="D50" s="3">
-        <v>43208</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2">
-        <v>9.038</v>
+        <v>10.4288</v>
       </c>
       <c r="D51" s="3">
-        <v>43209</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C52" s="2">
-        <v>10.5492</v>
+        <v>10.4543</v>
       </c>
       <c r="D52" s="3">
-        <v>43210</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2">
-        <v>13.8506</v>
+        <v>10.4851</v>
       </c>
       <c r="D53" s="3">
-        <v>43211</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C54" s="2">
-        <v>11.4913</v>
+        <v>10.5163</v>
       </c>
       <c r="D54" s="3">
-        <v>43212</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C55" s="2">
         <v>10.5381</v>
       </c>
       <c r="D55" s="3">
-        <v>43213</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C56" s="2">
-        <v>11.1303</v>
+        <v>10.5492</v>
       </c>
       <c r="D56" s="3">
-        <v>43214</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C57" s="2">
-        <v>10.1567</v>
+        <v>10.5661</v>
       </c>
       <c r="D57" s="3">
-        <v>43215</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C58" s="2">
-        <v>10.8089</v>
+        <v>10.6775</v>
       </c>
       <c r="D58" s="3">
-        <v>43216</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C59" s="2">
-        <v>11.7299</v>
+        <v>10.6968</v>
       </c>
       <c r="D59" s="3">
-        <v>43217</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C60" s="2">
-        <v>10.4543</v>
+        <v>10.7237</v>
       </c>
       <c r="D60" s="3">
-        <v>43218</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C61" s="2">
-        <v>10.4851</v>
+        <v>10.8089</v>
       </c>
       <c r="D61" s="3">
-        <v>43219</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C62" s="2">
-        <v>12.1397</v>
+        <v>10.8718</v>
       </c>
       <c r="D62" s="3">
-        <v>43220</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C63" s="2">
-        <v>13.5504</v>
+        <v>10.8734</v>
       </c>
       <c r="D63" s="3">
-        <v>43221</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C64" s="2">
-        <v>11.9596</v>
+        <v>10.8784</v>
       </c>
       <c r="D64" s="3">
-        <v>43222</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="C65" s="2">
-        <v>10.1595</v>
+        <v>10.8827</v>
       </c>
       <c r="D65" s="3">
-        <v>43223</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C66" s="2">
-        <v>10.3017</v>
+        <v>10.9042</v>
       </c>
       <c r="D66" s="3">
-        <v>43224</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C67" s="2">
-        <v>8.0672</v>
+        <v>10.9667</v>
       </c>
       <c r="D67" s="3">
-        <v>43225</v>
+        <v>43163</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C68" s="2">
-        <v>11.6312</v>
+        <v>11.0685</v>
       </c>
       <c r="D68" s="3">
-        <v>43226</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2298,13 +2300,13 @@
         <v>74</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C69" s="2">
-        <v>6.3463</v>
+        <v>11.1303</v>
       </c>
       <c r="D69" s="3">
-        <v>43227</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2312,13 +2314,13 @@
         <v>75</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C70" s="2">
-        <v>10.7237</v>
+        <v>11.1942</v>
       </c>
       <c r="D70" s="3">
-        <v>43228</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2326,13 +2328,13 @@
         <v>76</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C71" s="2">
-        <v>8.5281</v>
+        <v>11.2548</v>
       </c>
       <c r="D71" s="3">
-        <v>43229</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2340,13 +2342,13 @@
         <v>77</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C72" s="2">
-        <v>10.8718</v>
+        <v>11.3035</v>
       </c>
       <c r="D72" s="3">
-        <v>43230</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2354,13 +2356,13 @@
         <v>78</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C73" s="2">
-        <v>13.3763</v>
+        <v>11.3749</v>
       </c>
       <c r="D73" s="3">
-        <v>43231</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2368,13 +2370,13 @@
         <v>79</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C74" s="2">
-        <v>13.7154</v>
+        <v>11.3929</v>
       </c>
       <c r="D74" s="3">
-        <v>43232</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2382,13 +2384,13 @@
         <v>80</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C75" s="2">
-        <v>11.3929</v>
+        <v>11.4913</v>
       </c>
       <c r="D75" s="3">
-        <v>43233</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2396,13 +2398,13 @@
         <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C76" s="2">
-        <v>9.7347</v>
+        <v>11.584</v>
       </c>
       <c r="D76" s="3">
-        <v>43234</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2410,13 +2412,13 @@
         <v>82</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C77" s="2">
-        <v>10.5163</v>
+        <v>11.6018</v>
       </c>
       <c r="D77" s="3">
-        <v>43235</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2424,13 +2426,13 @@
         <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2">
-        <v>9.2116</v>
+        <v>11.6312</v>
       </c>
       <c r="D78" s="3">
-        <v>43236</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2438,13 +2440,13 @@
         <v>84</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C79" s="2">
-        <v>10.1048</v>
+        <v>11.7189</v>
       </c>
       <c r="D79" s="3">
-        <v>43237</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2452,13 +2454,13 @@
         <v>85</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C80" s="2">
-        <v>12.9512</v>
+        <v>11.7299</v>
       </c>
       <c r="D80" s="3">
-        <v>43238</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2466,13 +2468,13 @@
         <v>86</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C81" s="2">
-        <v>14.304</v>
+        <v>11.7603</v>
       </c>
       <c r="D81" s="3">
-        <v>43239</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2480,13 +2482,13 @@
         <v>87</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C82" s="2">
-        <v>9.5739</v>
+        <v>11.8673</v>
       </c>
       <c r="D82" s="3">
-        <v>43240</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2494,13 +2496,13 @@
         <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C83" s="2">
-        <v>9.4676</v>
+        <v>11.9596</v>
       </c>
       <c r="D83" s="3">
-        <v>43241</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2508,13 +2510,13 @@
         <v>89</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C84" s="2">
-        <v>10.5661</v>
+        <v>11.993</v>
       </c>
       <c r="D84" s="3">
-        <v>43242</v>
+        <v>43164</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2522,13 +2524,13 @@
         <v>90</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C85" s="2">
-        <v>9.6978</v>
+        <v>12.137</v>
       </c>
       <c r="D85" s="3">
-        <v>43243</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2536,13 +2538,13 @@
         <v>91</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C86" s="2">
-        <v>11.8673</v>
+        <v>12.1397</v>
       </c>
       <c r="D86" s="3">
-        <v>43244</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2550,13 +2552,13 @@
         <v>92</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C87" s="2">
-        <v>9.8443</v>
+        <v>12.1985</v>
       </c>
       <c r="D87" s="3">
-        <v>43245</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2564,13 +2566,13 @@
         <v>93</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C88" s="2">
-        <v>9.0493</v>
+        <v>12.269</v>
       </c>
       <c r="D88" s="3">
-        <v>43246</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2578,13 +2580,13 @@
         <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C89" s="2">
-        <v>9.3511</v>
+        <v>12.3102</v>
       </c>
       <c r="D89" s="3">
-        <v>43247</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2592,13 +2594,13 @@
         <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C90" s="2">
-        <v>10.9667</v>
+        <v>12.3256</v>
       </c>
       <c r="D90" s="3">
-        <v>43248</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2606,13 +2608,13 @@
         <v>96</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C91" s="2">
-        <v>11.584</v>
+        <v>12.7539</v>
       </c>
       <c r="D91" s="3">
-        <v>43249</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2620,13 +2622,13 @@
         <v>97</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C92" s="2">
-        <v>12.3102</v>
+        <v>12.9512</v>
       </c>
       <c r="D92" s="3">
-        <v>43250</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2634,13 +2636,13 @@
         <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C93" s="2">
-        <v>9.8954</v>
+        <v>13.1013</v>
       </c>
       <c r="D93" s="3">
-        <v>43251</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2648,13 +2650,13 @@
         <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C94" s="2">
-        <v>7.085</v>
+        <v>13.3763</v>
       </c>
       <c r="D94" s="3">
-        <v>43252</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2662,13 +2664,13 @@
         <v>100</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C95" s="2">
-        <v>8.751</v>
+        <v>13.4113</v>
       </c>
       <c r="D95" s="3">
-        <v>43253</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2676,13 +2678,13 @@
         <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2">
-        <v>8.8576</v>
+        <v>13.5504</v>
       </c>
       <c r="D96" s="3">
-        <v>43254</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2690,13 +2692,13 @@
         <v>102</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2">
-        <v>11.7189</v>
+        <v>13.7154</v>
       </c>
       <c r="D97" s="3">
-        <v>43255</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2704,13 +2706,13 @@
         <v>103</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="C98" s="2">
-        <v>10.8784</v>
+        <v>13.8506</v>
       </c>
       <c r="D98" s="3">
-        <v>43256</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2718,13 +2720,13 @@
         <v>104</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C99" s="2">
-        <v>8.2847</v>
+        <v>13.9651</v>
       </c>
       <c r="D99" s="3">
-        <v>43257</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2732,13 +2734,13 @@
         <v>105</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C100" s="2">
-        <v>13.9651</v>
+        <v>14.304</v>
       </c>
       <c r="D100" s="3">
-        <v>43258</v>
+        <v>43165</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2746,16 +2748,22 @@
         <v>106</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="C101" s="2">
-        <v>9.7359</v>
+        <v>15.7839</v>
       </c>
       <c r="D101" s="3">
-        <v>43259</v>
+        <v>43165</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D101">
+    <sortState ref="A2:D101">
+      <sortCondition ref="C1"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2777,21 +2785,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>